--- a/validation/validation_Kp.xlsx
+++ b/validation/validation_Kp.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sueinchoi/GitHub/KpCoeff/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB9C7D5-30F0-A54B-82FD-C6BBBBB9F27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A703A-1020-EE43-A320-906568AE5FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30880" yWindow="8360" windowWidth="28800" windowHeight="15720" xr2:uid="{06DB5580-676D-AC49-BB26-04691F541E84}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{06DB5580-676D-AC49-BB26-04691F541E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$30</definedName>
   </definedNames>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="145">
   <si>
     <t>Compound</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +317,287 @@
   </si>
   <si>
     <t>Kpth</t>
+  </si>
+  <si>
+    <t>Compound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adipose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_ad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpbo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_bo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpbr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_br</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpgu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_gu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kphe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_he</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kidney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpki</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_ki</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kplu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_lu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpmu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_mu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pancreas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kppa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_pa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpsk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_sk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spleen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_sp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thymus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kprb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kppl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alfentanil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alprazolam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chlordiazepoxide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diazepam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flunitrazepam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midazolam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triazolam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hexyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heptyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cefazolin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dideoxyinosine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penicillin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phenobarbital</t>
+  </si>
+  <si>
+    <t>Phenytoin</t>
+  </si>
+  <si>
+    <t>Salicyclic acid</t>
+  </si>
+  <si>
+    <t>Tenoxicam</t>
+  </si>
+  <si>
+    <t>Thiopental</t>
+  </si>
+  <si>
+    <t>Tolbutamide</t>
+  </si>
+  <si>
+    <t>Valproate</t>
+  </si>
+  <si>
+    <t>Cyclosporine</t>
+  </si>
+  <si>
+    <t>Digoxin</t>
+  </si>
+  <si>
+    <t>Ethoxybenzamide</t>
+  </si>
+  <si>
+    <t>Ftorafur</t>
   </si>
 </sst>
 </file>
@@ -323,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +648,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,11 +664,29 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -387,23 +696,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,6 +816,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="sheet1"/>
+      <sheetName val="sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070B7715-CCB0-2440-B250-4A5C7F01ECD2}">
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AI12" sqref="AI12"/>
     </sheetView>
@@ -4659,12 +4993,2971 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C81141-F7E2-194B-94AA-2BF7A79FE084}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C2" s="8">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>10.14</v>
+      </c>
+      <c r="D2">
+        <f>ABS(B2-C2)/B2*100</f>
+        <v>10.21739130434784</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2">
+        <v>6.3</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>6.81</v>
+      </c>
+      <c r="J2">
+        <f>ABS(H2-I2)/H2*100</f>
+        <v>8.0952380952380913</v>
+      </c>
+      <c r="K2">
+        <v>7.33</v>
+      </c>
+      <c r="L2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>7.94</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M31" si="0">ABS(K2-L2)/K2*100</f>
+        <v>8.3219645293315185</v>
+      </c>
+      <c r="N2">
+        <v>3.97</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>4.51</v>
+      </c>
+      <c r="Q2">
+        <v>4.24</v>
+      </c>
+      <c r="R2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>4.57</v>
+      </c>
+      <c r="T2">
+        <v>4.05</v>
+      </c>
+      <c r="U2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>4.49</v>
+      </c>
+      <c r="W2">
+        <v>5.48</v>
+      </c>
+      <c r="X2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>6.14</v>
+      </c>
+      <c r="Z2">
+        <v>2.88</v>
+      </c>
+      <c r="AA2">
+        <f>VLOOKUP(A2, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>3.06</v>
+      </c>
+      <c r="AC2">
+        <v>6.71</v>
+      </c>
+      <c r="AF2">
+        <v>10.7</v>
+      </c>
+      <c r="AI2">
+        <v>2.7</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>14.2</v>
+      </c>
+      <c r="C3" s="8">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>14.2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="1">ABS(B3-C3)/B3*100</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J31" si="2">ABS(H3-I3)/H3*100</f>
+        <v>0.11481056257175414</v>
+      </c>
+      <c r="K3">
+        <v>9.17</v>
+      </c>
+      <c r="L3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1.4176663031624948</v>
+      </c>
+      <c r="N3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>4.45</v>
+      </c>
+      <c r="Q3">
+        <v>4.71</v>
+      </c>
+      <c r="R3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>4.79</v>
+      </c>
+      <c r="T3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="U3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>5.09</v>
+      </c>
+      <c r="W3" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>6.23</v>
+      </c>
+      <c r="Z3">
+        <v>3.23</v>
+      </c>
+      <c r="AA3">
+        <f>VLOOKUP(A3, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>3.26</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF3">
+        <v>13.3</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>18.440000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>9.6078431372548891</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4">
+        <v>11.9</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>10.91</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>8.3193277310924376</v>
+      </c>
+      <c r="K4">
+        <v>12.8</v>
+      </c>
+      <c r="L4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>12.02</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>6.0937500000000089</v>
+      </c>
+      <c r="N4">
+        <v>5.94</v>
+      </c>
+      <c r="O4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>5.91</v>
+      </c>
+      <c r="Q4">
+        <v>6.63</v>
+      </c>
+      <c r="R4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>6.25</v>
+      </c>
+      <c r="T4">
+        <v>6.75</v>
+      </c>
+      <c r="U4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>6.5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>8.33</v>
+      </c>
+      <c r="Z4">
+        <v>4.38</v>
+      </c>
+      <c r="AA4">
+        <f>VLOOKUP(A4, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>4.12</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>56.3</v>
+      </c>
+      <c r="C5" s="8">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>50.85</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>9.6802841918294771</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <v>28.3</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>25.89</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>8.5159010600706715</v>
+      </c>
+      <c r="K5">
+        <v>29.9</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>27.81</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6.9899665551839458</v>
+      </c>
+      <c r="N5">
+        <v>12.8</v>
+      </c>
+      <c r="O5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>12.42</v>
+      </c>
+      <c r="Q5">
+        <v>14.6</v>
+      </c>
+      <c r="R5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>13.5</v>
+      </c>
+      <c r="T5">
+        <v>15.3</v>
+      </c>
+      <c r="U5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>14.51</v>
+      </c>
+      <c r="W5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="X5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>18.04</v>
+      </c>
+      <c r="Z5">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="AA5">
+        <f>VLOOKUP(A5, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF5">
+        <v>44.4</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>7.83</v>
+      </c>
+      <c r="C6" s="8">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>8.65</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>10.472541507024269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6">
+        <v>5.42</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>5.88</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>8.4870848708487081</v>
+      </c>
+      <c r="K6">
+        <v>5.9</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>6.44</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>9.1525423728813564</v>
+      </c>
+      <c r="N6">
+        <v>2.92</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>3.38</v>
+      </c>
+      <c r="Q6">
+        <v>3.25</v>
+      </c>
+      <c r="R6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>3.54</v>
+      </c>
+      <c r="T6">
+        <v>3.26</v>
+      </c>
+      <c r="U6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>3.65</v>
+      </c>
+      <c r="W6" t="s">
+        <v>115</v>
+      </c>
+      <c r="X6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Z6">
+        <v>2.29</v>
+      </c>
+      <c r="AA6">
+        <f>VLOOKUP(A6, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>105.67</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>11.941666666666666</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>55.1</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>49.19</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>10.725952813067158</v>
+      </c>
+      <c r="K7">
+        <v>58.6</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>53.35</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>8.9590443686006829</v>
+      </c>
+      <c r="N7">
+        <v>25.2</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>23.78</v>
+      </c>
+      <c r="Q7">
+        <v>28.5</v>
+      </c>
+      <c r="R7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>25.77</v>
+      </c>
+      <c r="T7">
+        <v>29.8</v>
+      </c>
+      <c r="U7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>27.54</v>
+      </c>
+      <c r="W7">
+        <v>37.4</v>
+      </c>
+      <c r="X7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>34.79</v>
+      </c>
+      <c r="Z7">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <f>VLOOKUP(A7, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>16.32</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF7">
+        <v>87.7</v>
+      </c>
+      <c r="AI7">
+        <v>15.8</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>19.3</v>
+      </c>
+      <c r="C8" s="8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.0259067357513079</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>10.78</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8">
+        <v>11.9</v>
+      </c>
+      <c r="L8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>11.55</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2.941176470588232</v>
+      </c>
+      <c r="N8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>5.43</v>
+      </c>
+      <c r="Q8">
+        <v>6.01</v>
+      </c>
+      <c r="R8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>5.86</v>
+      </c>
+      <c r="T8">
+        <v>6.25</v>
+      </c>
+      <c r="U8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>6.24</v>
+      </c>
+      <c r="W8" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>7.68</v>
+      </c>
+      <c r="Z8">
+        <v>4.04</v>
+      </c>
+      <c r="AA8">
+        <f>VLOOKUP(A8, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>3.93</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>0.18</v>
+      </c>
+      <c r="C9" s="8">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.19</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555607</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <v>0.73</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>4.1095890410958944</v>
+      </c>
+      <c r="K9">
+        <v>0.74</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2.7027027027027053</v>
+      </c>
+      <c r="N9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q9">
+        <v>0.66</v>
+      </c>
+      <c r="R9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.74</v>
+      </c>
+      <c r="T9">
+        <v>0.63</v>
+      </c>
+      <c r="U9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="W9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>0.77</v>
+      </c>
+      <c r="Z9">
+        <v>0.68</v>
+      </c>
+      <c r="AA9">
+        <f>VLOOKUP(A9, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AC9">
+        <v>0.63</v>
+      </c>
+      <c r="AF9">
+        <v>0.69</v>
+      </c>
+      <c r="AI9">
+        <v>0.54</v>
+      </c>
+      <c r="AL9">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>0.31</v>
+      </c>
+      <c r="C10" s="8">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.33</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10">
+        <v>0.81</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.85</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>4.9382716049382616</v>
+      </c>
+      <c r="K10">
+        <v>0.83</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>3.6144578313253044</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="Q10">
+        <v>0.7</v>
+      </c>
+      <c r="R10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="T10">
+        <v>0.66</v>
+      </c>
+      <c r="U10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="W10">
+        <v>0.64</v>
+      </c>
+      <c r="X10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>0.83</v>
+      </c>
+      <c r="Z10">
+        <v>0.69</v>
+      </c>
+      <c r="AA10">
+        <f>VLOOKUP(A10, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="AC10">
+        <v>0.75</v>
+      </c>
+      <c r="AF10">
+        <v>0.85</v>
+      </c>
+      <c r="AI10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AL10">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11">
+        <v>0.34</v>
+      </c>
+      <c r="C11" s="8">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.37</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>8.8235294117646959</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>0.82</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>4.8780487804878092</v>
+      </c>
+      <c r="K11">
+        <v>0.85</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.89</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>4.7058823529411802</v>
+      </c>
+      <c r="N11">
+        <v>0.62</v>
+      </c>
+      <c r="O11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q11">
+        <v>0.71</v>
+      </c>
+      <c r="R11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="T11">
+        <v>0.66</v>
+      </c>
+      <c r="U11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="W11">
+        <v>0.67</v>
+      </c>
+      <c r="X11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="Z11">
+        <v>0.68</v>
+      </c>
+      <c r="AA11">
+        <f>VLOOKUP(A11, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="AC11">
+        <v>0.74</v>
+      </c>
+      <c r="AF11">
+        <v>0.9</v>
+      </c>
+      <c r="AI11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AL11">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="8">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000064</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12">
+        <v>2.21</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>2.12</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>4.0723981900452424</v>
+      </c>
+      <c r="K12">
+        <v>2.35</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>3.8297872340425658</v>
+      </c>
+      <c r="N12">
+        <v>1.26</v>
+      </c>
+      <c r="O12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1.41</v>
+      </c>
+      <c r="Q12">
+        <v>1.43</v>
+      </c>
+      <c r="R12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="T12">
+        <v>1.42</v>
+      </c>
+      <c r="U12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="W12">
+        <v>1.63</v>
+      </c>
+      <c r="X12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.75</v>
+      </c>
+      <c r="Z12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AA12">
+        <f>VLOOKUP(A12, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>2.25</v>
+      </c>
+      <c r="AF12">
+        <v>3.15</v>
+      </c>
+      <c r="AI12">
+        <v>0.96</v>
+      </c>
+      <c r="AL12">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>9.76</v>
+      </c>
+      <c r="C13" s="8">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>8.83</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9.5286885245901605</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13">
+        <v>6.21</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>5.74</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>7.5684380032206082</v>
+      </c>
+      <c r="K13">
+        <v>6.51</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>6.1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>6.2980030721966234</v>
+      </c>
+      <c r="N13">
+        <v>2.96</v>
+      </c>
+      <c r="O13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>3.03</v>
+      </c>
+      <c r="Q13">
+        <v>3.4</v>
+      </c>
+      <c r="R13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>3.24</v>
+      </c>
+      <c r="T13">
+        <v>4.18</v>
+      </c>
+      <c r="U13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>3.42</v>
+      </c>
+      <c r="W13">
+        <v>2.38</v>
+      </c>
+      <c r="X13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Z13">
+        <v>6.59</v>
+      </c>
+      <c r="AA13">
+        <f>VLOOKUP(A13, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AC13">
+        <v>9.35</v>
+      </c>
+      <c r="AF13">
+        <v>2.02</v>
+      </c>
+      <c r="AI13">
+        <v>3.45</v>
+      </c>
+      <c r="AL13">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>32.4</v>
+      </c>
+      <c r="C14" s="8">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>33.94</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>4.7530864197530835</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14">
+        <v>16.8</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>17.39</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3.5119047619047614</v>
+      </c>
+      <c r="K14">
+        <v>17.8</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>18.71</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>5.1123595505617985</v>
+      </c>
+      <c r="N14">
+        <v>7.79</v>
+      </c>
+      <c r="O14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="Q14">
+        <v>8.84</v>
+      </c>
+      <c r="R14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>9.17</v>
+      </c>
+      <c r="T14">
+        <v>9.19</v>
+      </c>
+      <c r="U14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>9.81</v>
+      </c>
+      <c r="W14">
+        <v>11.4</v>
+      </c>
+      <c r="X14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>12.22</v>
+      </c>
+      <c r="Z14">
+        <v>5.72</v>
+      </c>
+      <c r="AA14">
+        <f>VLOOKUP(A14, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>5.94</v>
+      </c>
+      <c r="AC14">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AF14">
+        <v>26.4</v>
+      </c>
+      <c r="AI14">
+        <v>5</v>
+      </c>
+      <c r="AL14">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15" s="8">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>131.02000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>6.5203252032520407</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15">
+        <v>54.4</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>57.47</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>5.6433823529411775</v>
+      </c>
+      <c r="K15">
+        <v>57.7</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>61.89</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>7.2616984402079687</v>
+      </c>
+      <c r="N15">
+        <v>24.7</v>
+      </c>
+      <c r="O15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>27.05</v>
+      </c>
+      <c r="Q15">
+        <v>27.9</v>
+      </c>
+      <c r="R15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>29.51</v>
+      </c>
+      <c r="T15">
+        <v>29.2</v>
+      </c>
+      <c r="U15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>31.79</v>
+      </c>
+      <c r="W15">
+        <v>36.6</v>
+      </c>
+      <c r="X15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>39.770000000000003</v>
+      </c>
+      <c r="Z15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AA15">
+        <f>VLOOKUP(A15, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>18.66</v>
+      </c>
+      <c r="AC15">
+        <v>59</v>
+      </c>
+      <c r="AF15">
+        <v>86.4</v>
+      </c>
+      <c r="AI15">
+        <v>15.4</v>
+      </c>
+      <c r="AL15">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>490</v>
+      </c>
+      <c r="C16" s="8">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>471.99</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3.6755102040816308</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16">
+        <v>186</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>179.93</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>3.26344086021505</v>
+      </c>
+      <c r="K16">
+        <v>197</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>193.1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1.9796954314720843</v>
+      </c>
+      <c r="N16">
+        <v>82.3</v>
+      </c>
+      <c r="O16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>82.89</v>
+      </c>
+      <c r="Q16">
+        <v>93.8</v>
+      </c>
+      <c r="R16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>90.9</v>
+      </c>
+      <c r="T16">
+        <v>98.9</v>
+      </c>
+      <c r="U16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>98.5</v>
+      </c>
+      <c r="W16">
+        <v>123</v>
+      </c>
+      <c r="X16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>122.69</v>
+      </c>
+      <c r="Z16">
+        <v>58.7</v>
+      </c>
+      <c r="AA16">
+        <f>VLOOKUP(A16, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>57.14</v>
+      </c>
+      <c r="AC16">
+        <v>202</v>
+      </c>
+      <c r="AF16">
+        <v>295</v>
+      </c>
+      <c r="AI16">
+        <v>51.1</v>
+      </c>
+      <c r="AL16">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17">
+        <v>958</v>
+      </c>
+      <c r="C17" s="8">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>1020.79</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>6.5542797494780753</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17">
+        <v>341</v>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>359.85</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>5.5278592375366635</v>
+      </c>
+      <c r="K17">
+        <v>364</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>389.62</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>7.0384615384615392</v>
+      </c>
+      <c r="N17">
+        <v>156</v>
+      </c>
+      <c r="O17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>169.67</v>
+      </c>
+      <c r="Q17">
+        <v>176</v>
+      </c>
+      <c r="R17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>184.81</v>
+      </c>
+      <c r="T17">
+        <v>183</v>
+      </c>
+      <c r="U17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>198.62</v>
+      </c>
+      <c r="W17">
+        <v>232</v>
+      </c>
+      <c r="X17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>250.84</v>
+      </c>
+      <c r="Z17">
+        <v>109</v>
+      </c>
+      <c r="AA17">
+        <f>VLOOKUP(A17, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>115.41</v>
+      </c>
+      <c r="AC17">
+        <v>371</v>
+      </c>
+      <c r="AF17">
+        <v>548</v>
+      </c>
+      <c r="AI17">
+        <v>96.6</v>
+      </c>
+      <c r="AL17">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="8">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18">
+        <v>0.74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.66</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18">
+        <v>1.28</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>1.3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1.5625000000000013</v>
+      </c>
+      <c r="N18">
+        <v>1.23</v>
+      </c>
+      <c r="O18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1.33</v>
+      </c>
+      <c r="Q18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.79</v>
+      </c>
+      <c r="U18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.84</v>
+      </c>
+      <c r="W18">
+        <v>1.52</v>
+      </c>
+      <c r="X18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.63</v>
+      </c>
+      <c r="Z18">
+        <v>0.69</v>
+      </c>
+      <c r="AA18">
+        <f>VLOOKUP(A18, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF18">
+        <v>19.2</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="8">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.16</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19">
+        <v>0.75</v>
+      </c>
+      <c r="I19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.77</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666687</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="Q19">
+        <v>0.69</v>
+      </c>
+      <c r="R19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.77</v>
+      </c>
+      <c r="T19">
+        <v>0.66</v>
+      </c>
+      <c r="U19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>115</v>
+      </c>
+      <c r="X19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="Z19">
+        <v>0.73</v>
+      </c>
+      <c r="AA19">
+        <f>VLOOKUP(A19, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AC19">
+        <v>0.64</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="8">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.42</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.68</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20">
+        <v>1.36</v>
+      </c>
+      <c r="L20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>1.37</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0.73529411764705943</v>
+      </c>
+      <c r="N20">
+        <v>1.31</v>
+      </c>
+      <c r="O20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1.39</v>
+      </c>
+      <c r="Q20">
+        <v>1.17</v>
+      </c>
+      <c r="R20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>1.2</v>
+      </c>
+      <c r="T20">
+        <v>0.84</v>
+      </c>
+      <c r="U20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.88</v>
+      </c>
+      <c r="W20">
+        <v>1.63</v>
+      </c>
+      <c r="X20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.71</v>
+      </c>
+      <c r="Z20">
+        <v>0.72</v>
+      </c>
+      <c r="AA20">
+        <f>VLOOKUP(A20, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.73</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI20">
+        <v>0.9</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="C21" s="8">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>1.33</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>8.1300813008130142</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>1.41</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="L21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>1.53</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>6.9930069930069987</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="O21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1.07</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="R21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>1.07</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="U21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>1.04</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="X21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.27</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="AA21">
+        <f>VLOOKUP(A21, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.84</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+    </row>
+    <row r="22" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="C22" s="8">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>21.08</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.56603773584906136</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>11.99</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>8.3333333333331566E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>13.01</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0.85271317829456927</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="O22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>6.17</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <v>6.55</v>
+      </c>
+      <c r="R22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>6.6</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="U22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>6.97</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="X22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>8.76</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="AA22">
+        <f>VLOOKUP(A22, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+    </row>
+    <row r="23" spans="1:42" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="8">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.44</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>1.44</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1.3698630136986314</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="O23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1.47</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="R23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>1.26</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="U23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.92</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="X23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.82</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="AA23">
+        <f>VLOOKUP(A23, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+    </row>
+    <row r="24" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="C24" s="8">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>7.95</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>155.62700964630224</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="I24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>6.66</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>104.29447852760738</v>
+      </c>
+      <c r="K24" s="2">
+        <v>9.93</v>
+      </c>
+      <c r="L24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>13.16</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>32.527693856998994</v>
+      </c>
+      <c r="N24" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="O24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>11.2</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="R24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="U24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>7.38</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="X24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>15.05</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="AA24">
+        <f>VLOOKUP(A24, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>5.41</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2">
+        <v>17</v>
+      </c>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+    </row>
+    <row r="25" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="C25" s="8">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>36.79</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>10.048899755501221</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="I25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>9.1584158415841479</v>
+      </c>
+      <c r="K25" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>7.4537037037037166</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9.51</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>9.19</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="R25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="U25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>10.45</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="X25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>13.27</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="AA25">
+        <f>VLOOKUP(A25, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>6.32</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+    </row>
+    <row r="26" spans="1:42" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="8">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.42</v>
+      </c>
+      <c r="D26" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.62</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333366</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.98</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1.0309278350515474</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.67</v>
+      </c>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="X26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA26">
+        <f>VLOOKUP(A26, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+    </row>
+    <row r="27" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="8">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.53</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>1.9230769230769247</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1.2987012987012998</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="O27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="R27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="X27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AA27">
+        <f>VLOOKUP(A27, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.49</v>
+      </c>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+    </row>
+    <row r="28" spans="1:42" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C28" s="8">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>66.03</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>4.855907780979833</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>32.479999999999997</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>4.4705882352941266</v>
+      </c>
+      <c r="K28" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>35.19</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>2.7900552486187986</v>
+      </c>
+      <c r="N28" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="O28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>15.98</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="R28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>17.29</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="U28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>19.03</v>
+      </c>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2">
+        <v>23</v>
+      </c>
+      <c r="X28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>22.81</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="AA28">
+        <f>VLOOKUP(A28, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>10.94</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+    </row>
+    <row r="29" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="8">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>1.02</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>1.43</v>
+      </c>
+      <c r="J29" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>1.51</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1.3071895424836613</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="O29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>1.18</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.3</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AA29">
+        <f>VLOOKUP(A29, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.98</v>
+      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+    </row>
+    <row r="30" spans="1:42" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C30" s="8">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666705</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="I30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>1.06</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2.9126213592233037</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818195</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="O30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="R30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.99</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.99</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="X30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>1.07</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AA30">
+        <f>VLOOKUP(A30, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.87</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+    </row>
+    <row r="31" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C31" s="8">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kpad]], 2, 0)</f>
+        <v>0.19</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="I31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kpbr]], 4, 0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>2.5316455696202551</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="L31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kpgu]], 5, 0)</f>
+        <v>0.83</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>2.4691358024691241</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="O31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kphe]], 6, 0)</f>
+        <v>0.84</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="R31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kpki]], 7, 0)</f>
+        <v>0.82</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="U31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kpli]], 8, 0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="X31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kplu]], 9, 0)</f>
+        <v>0.85</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="AA31">
+        <f>VLOOKUP(A31, [1]!Table4[[compound]:[Kpmu]], 10, 0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>